--- a/ResultadoEleicoesDistritos/PORTO_BAIÃO.xlsx
+++ b/ResultadoEleicoesDistritos/PORTO_BAIÃO.xlsx
@@ -597,64 +597,64 @@
         <v>4888</v>
       </c>
       <c r="H2" t="n">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I2" t="n">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J2" t="n">
-        <v>1941</v>
+        <v>2027</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="M2" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N2" t="n">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="S2" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T2" t="n">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="U2" t="n">
         <v>24</v>
       </c>
       <c r="V2" t="n">
-        <v>3167</v>
+        <v>3249</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>3155</v>
+        <v>3042</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA2" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
